--- a/data/trans_orig/P39B-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P39B-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F10C46AB-1602-46A5-84AF-23B45A206BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{48FB2A79-688F-477F-8E78-0E70A0FA448C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{326361AC-0A93-4184-8726-163982273288}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8B197C37-9524-4B48-9303-E70C2099372F}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="856">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="850">
   <si>
     <t>Población según el tiempo transcurrido desde la última vez que le midieron el colesterol en 2012 (Tasa respuesta: 81,76%)</t>
   </si>
@@ -76,2533 +76,2515 @@
     <t>14,12%</t>
   </si>
   <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>Entre uno y tres años</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>Entre seis meses y un año</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>3 a 5 meses</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>Menos de 3 meses</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>42,29%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
+  </si>
+  <si>
+    <t>43,18%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última vez que le midieron el colesterol en 2016 (Tasa respuesta: 81,44%)</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>46,57%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>42,35%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
     <t>9,74%</t>
   </si>
   <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>36,68%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>37,45%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última vez que le midieron el colesterol en 2023 (Tasa respuesta: 87,94%)</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>46,93%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>57,94%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
     <t>19,13%</t>
   </si>
   <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>Entre uno y tres años</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>41,94%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>Entre seis meses y un año</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>3 a 5 meses</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>Menos de 3 meses</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>38,72%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>45,23%</t>
-  </si>
-  <si>
-    <t>39,95%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>42,81%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última vez que le midieron el colesterol en 2016 (Tasa respuesta: 81,44%)</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>46,41%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>42,37%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última vez que le midieron el colesterol en 2023 (Tasa respuesta: 87,94%)</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>49,81%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>41,92%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>46,7%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>59,79%</t>
-  </si>
-  <si>
-    <t>48,58%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
+    <t>23,29%</t>
   </si>
   <si>
     <t>20,12%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
   </si>
   <si>
     <t>21,19%</t>
@@ -3017,7 +2999,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{652EF3AB-55A8-42F6-954F-9F1DEF00F3FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{029F0D8F-62A5-447E-800E-166F753A083F}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3892,10 +3874,10 @@
         <v>132</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3910,13 +3892,13 @@
         <v>54652</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H19" s="7">
         <v>66</v>
@@ -3925,13 +3907,13 @@
         <v>68245</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>14</v>
+        <v>139</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M19" s="7">
         <v>117</v>
@@ -3940,13 +3922,13 @@
         <v>122898</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3961,13 +3943,13 @@
         <v>87354</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H20" s="7">
         <v>143</v>
@@ -3976,13 +3958,13 @@
         <v>153281</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M20" s="7">
         <v>228</v>
@@ -3991,13 +3973,13 @@
         <v>240636</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4053,7 +4035,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4065,13 +4047,13 @@
         <v>61676</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H22" s="7">
         <v>42</v>
@@ -4080,13 +4062,13 @@
         <v>47520</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M22" s="7">
         <v>96</v>
@@ -4095,13 +4077,13 @@
         <v>109196</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>18</v>
+        <v>161</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4116,13 +4098,13 @@
         <v>140340</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H23" s="7">
         <v>105</v>
@@ -4131,13 +4113,13 @@
         <v>119715</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="M23" s="7">
         <v>233</v>
@@ -4146,13 +4128,13 @@
         <v>260055</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4167,13 +4149,13 @@
         <v>184105</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="H24" s="7">
         <v>156</v>
@@ -4182,13 +4164,13 @@
         <v>177925</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="M24" s="7">
         <v>319</v>
@@ -4197,13 +4179,13 @@
         <v>362030</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>175</v>
+        <v>83</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4218,13 +4200,13 @@
         <v>57471</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H25" s="7">
         <v>57</v>
@@ -4233,13 +4215,13 @@
         <v>64898</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="M25" s="7">
         <v>107</v>
@@ -4248,13 +4230,13 @@
         <v>122369</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4269,13 +4251,13 @@
         <v>97423</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H26" s="7">
         <v>112</v>
@@ -4284,13 +4266,13 @@
         <v>128191</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M26" s="7">
         <v>200</v>
@@ -4299,13 +4281,13 @@
         <v>225614</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4361,7 +4343,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4373,13 +4355,13 @@
         <v>23461</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="H28" s="7">
         <v>10</v>
@@ -4388,13 +4370,13 @@
         <v>12299</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="M28" s="7">
         <v>31</v>
@@ -4403,13 +4385,13 @@
         <v>35760</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4424,13 +4406,13 @@
         <v>77005</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="H29" s="7">
         <v>53</v>
@@ -4439,13 +4421,13 @@
         <v>59890</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>46</v>
+        <v>211</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="M29" s="7">
         <v>122</v>
@@ -4454,13 +4436,13 @@
         <v>136895</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4475,13 +4457,13 @@
         <v>118553</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>213</v>
+        <v>56</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="H30" s="7">
         <v>111</v>
@@ -4490,13 +4472,13 @@
         <v>121293</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="M30" s="7">
         <v>224</v>
@@ -4505,13 +4487,13 @@
         <v>239846</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>219</v>
+        <v>165</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4526,13 +4508,13 @@
         <v>52260</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="H31" s="7">
         <v>70</v>
@@ -4541,13 +4523,13 @@
         <v>76172</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M31" s="7">
         <v>117</v>
@@ -4556,10 +4538,10 @@
         <v>128432</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>228</v>
+        <v>140</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>229</v>
@@ -4753,7 +4735,7 @@
         <v>253</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>157</v>
+        <v>254</v>
       </c>
       <c r="M35" s="7">
         <v>96</v>
@@ -4762,7 +4744,7 @@
         <v>99661</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>254</v>
+        <v>18</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>255</v>
@@ -4816,10 +4798,10 @@
         <v>263</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>130</v>
+        <v>264</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4834,13 +4816,13 @@
         <v>107328</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H37" s="7">
         <v>126</v>
@@ -4849,13 +4831,13 @@
         <v>136234</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>55</v>
+        <v>269</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M37" s="7">
         <v>220</v>
@@ -4864,13 +4846,13 @@
         <v>243562</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>186</v>
+        <v>273</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4885,13 +4867,13 @@
         <v>193124</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="H38" s="7">
         <v>269</v>
@@ -4900,13 +4882,13 @@
         <v>287437</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="M38" s="7">
         <v>443</v>
@@ -4915,13 +4897,13 @@
         <v>480561</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>279</v>
+        <v>36</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4989,13 +4971,13 @@
         <v>258353</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H40" s="7">
         <v>183</v>
@@ -5004,13 +4986,13 @@
         <v>198332</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>284</v>
+        <v>45</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M40" s="7">
         <v>427</v>
@@ -5019,13 +5001,13 @@
         <v>456686</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -5040,13 +5022,13 @@
         <v>646520</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H41" s="7">
         <v>551</v>
@@ -5055,13 +5037,13 @@
         <v>593490</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M41" s="7">
         <v>1163</v>
@@ -5070,13 +5052,13 @@
         <v>1240010</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -5091,7 +5073,7 @@
         <v>858964</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>299</v>
+        <v>79</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>300</v>
@@ -5208,13 +5190,13 @@
         <v>886276</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="K44" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L44" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>321</v>
       </c>
       <c r="M44" s="7">
         <v>1369</v>
@@ -5223,13 +5205,13 @@
         <v>1483695</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P44" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q44" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="P44" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -5285,7 +5267,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -5307,7 +5289,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5DE2718-4E2B-4112-BD41-F4769B6BC1A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E148A468-5529-4EC3-BB88-304AF8D63A77}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5324,7 +5306,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5431,13 +5413,13 @@
         <v>32177</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>328</v>
+        <v>108</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="H4" s="7">
         <v>22</v>
@@ -5446,13 +5428,13 @@
         <v>20402</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>330</v>
+        <v>139</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>15</v>
+        <v>327</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>136</v>
+        <v>328</v>
       </c>
       <c r="M4" s="7">
         <v>52</v>
@@ -5461,13 +5443,13 @@
         <v>52579</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5482,13 +5464,13 @@
         <v>84713</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>335</v>
       </c>
       <c r="H5" s="7">
         <v>89</v>
@@ -5497,13 +5479,13 @@
         <v>88138</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>338</v>
       </c>
       <c r="M5" s="7">
         <v>170</v>
@@ -5512,13 +5494,13 @@
         <v>172852</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5533,13 +5515,13 @@
         <v>49613</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="H6" s="7">
         <v>72</v>
@@ -5599,13 +5581,13 @@
         <v>23561</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>12</v>
+        <v>353</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M7" s="7">
         <v>42</v>
@@ -5614,13 +5596,13 @@
         <v>43060</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>355</v>
+        <v>184</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5635,13 +5617,13 @@
         <v>27905</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>360</v>
       </c>
       <c r="H8" s="7">
         <v>39</v>
@@ -5650,13 +5632,13 @@
         <v>38877</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>363</v>
       </c>
       <c r="M8" s="7">
         <v>65</v>
@@ -5665,13 +5647,13 @@
         <v>66781</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5739,13 +5721,13 @@
         <v>72023</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>369</v>
       </c>
       <c r="H10" s="7">
         <v>45</v>
@@ -5754,13 +5736,13 @@
         <v>42737</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>372</v>
       </c>
       <c r="M10" s="7">
         <v>114</v>
@@ -5769,13 +5751,13 @@
         <v>114760</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5790,13 +5772,13 @@
         <v>135893</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>378</v>
       </c>
       <c r="H11" s="7">
         <v>148</v>
@@ -5805,7 +5787,7 @@
         <v>145220</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>307</v>
+        <v>378</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>379</v>
@@ -5823,7 +5805,7 @@
         <v>381</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>56</v>
+        <v>127</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>382</v>
@@ -5841,13 +5823,13 @@
         <v>109538</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>383</v>
+        <v>237</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>124</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H12" s="7">
         <v>148</v>
@@ -5856,13 +5838,13 @@
         <v>142019</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>387</v>
       </c>
       <c r="M12" s="7">
         <v>254</v>
@@ -5871,13 +5853,13 @@
         <v>251557</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5892,13 +5874,13 @@
         <v>26167</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>393</v>
       </c>
       <c r="H13" s="7">
         <v>48</v>
@@ -5907,13 +5889,13 @@
         <v>47851</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>396</v>
       </c>
       <c r="M13" s="7">
         <v>73</v>
@@ -5922,13 +5904,13 @@
         <v>74017</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5943,13 +5925,13 @@
         <v>36972</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>401</v>
+        <v>42</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>402</v>
+        <v>357</v>
       </c>
       <c r="H14" s="7">
         <v>71</v>
@@ -5958,13 +5940,13 @@
         <v>70531</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>404</v>
+        <v>356</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="M14" s="7">
         <v>107</v>
@@ -5973,13 +5955,13 @@
         <v>107503</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6047,13 +6029,13 @@
         <v>69769</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="H16" s="7">
         <v>73</v>
@@ -6062,13 +6044,13 @@
         <v>73790</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="M16" s="7">
         <v>140</v>
@@ -6077,13 +6059,13 @@
         <v>143559</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>416</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6098,13 +6080,13 @@
         <v>168624</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="H17" s="7">
         <v>160</v>
@@ -6113,13 +6095,13 @@
         <v>156110</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="M17" s="7">
         <v>322</v>
@@ -6128,13 +6110,13 @@
         <v>324734</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>175</v>
+        <v>418</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6149,13 +6131,13 @@
         <v>161659</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="H18" s="7">
         <v>160</v>
@@ -6164,13 +6146,13 @@
         <v>160984</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>292</v>
+        <v>425</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="M18" s="7">
         <v>315</v>
@@ -6179,13 +6161,13 @@
         <v>322642</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>432</v>
+        <v>383</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6200,13 +6182,13 @@
         <v>53324</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>435</v>
+        <v>405</v>
       </c>
       <c r="H19" s="7">
         <v>64</v>
@@ -6215,13 +6197,13 @@
         <v>63585</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="M19" s="7">
         <v>113</v>
@@ -6230,13 +6212,13 @@
         <v>116909</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6251,13 +6233,13 @@
         <v>65174</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>442</v>
+        <v>67</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>44</v>
+        <v>436</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="H20" s="7">
         <v>90</v>
@@ -6266,13 +6248,13 @@
         <v>88778</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>446</v>
+        <v>294</v>
       </c>
       <c r="M20" s="7">
         <v>151</v>
@@ -6281,13 +6263,13 @@
         <v>153952</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>438</v>
+        <v>215</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>136</v>
+        <v>440</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>447</v>
+        <v>407</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6343,7 +6325,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6355,13 +6337,13 @@
         <v>70776</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>450</v>
+        <v>105</v>
       </c>
       <c r="H22" s="7">
         <v>53</v>
@@ -6370,13 +6352,13 @@
         <v>56610</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="M22" s="7">
         <v>119</v>
@@ -6385,13 +6367,13 @@
         <v>127386</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>455</v>
+        <v>111</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6409,10 +6391,10 @@
         <v>123</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="H23" s="7">
         <v>165</v>
@@ -6421,13 +6403,13 @@
         <v>178067</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="M23" s="7">
         <v>296</v>
@@ -6436,13 +6418,13 @@
         <v>322840</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6457,13 +6439,13 @@
         <v>161922</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>21</v>
+        <v>458</v>
       </c>
       <c r="H24" s="7">
         <v>157</v>
@@ -6472,13 +6454,13 @@
         <v>171510</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>429</v>
+        <v>461</v>
       </c>
       <c r="M24" s="7">
         <v>303</v>
@@ -6487,13 +6469,13 @@
         <v>333432</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>469</v>
+        <v>300</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6508,13 +6490,13 @@
         <v>66313</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>65</v>
+        <v>465</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="H25" s="7">
         <v>77</v>
@@ -6526,10 +6508,10 @@
         <v>11</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="M25" s="7">
         <v>137</v>
@@ -6538,13 +6520,13 @@
         <v>147240</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>477</v>
+        <v>309</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6559,13 +6541,13 @@
         <v>94146</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>480</v>
+        <v>355</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="H26" s="7">
         <v>81</v>
@@ -6574,13 +6556,13 @@
         <v>86101</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>484</v>
+        <v>295</v>
       </c>
       <c r="M26" s="7">
         <v>165</v>
@@ -6589,13 +6571,13 @@
         <v>180247</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6651,7 +6633,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6663,13 +6645,13 @@
         <v>42734</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="H28" s="7">
         <v>20</v>
@@ -6678,13 +6660,13 @@
         <v>23983</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="M28" s="7">
         <v>57</v>
@@ -6693,13 +6675,13 @@
         <v>66718</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>452</v>
+        <v>483</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>494</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6714,13 +6696,13 @@
         <v>98563</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="H29" s="7">
         <v>94</v>
@@ -6729,13 +6711,13 @@
         <v>108299</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>418</v>
+        <v>490</v>
       </c>
       <c r="M29" s="7">
         <v>181</v>
@@ -6744,13 +6726,13 @@
         <v>206862</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>501</v>
+        <v>272</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6765,13 +6747,13 @@
         <v>134120</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>463</v>
+        <v>168</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="H30" s="7">
         <v>119</v>
@@ -6780,13 +6762,13 @@
         <v>136905</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>322</v>
+        <v>496</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>506</v>
+        <v>232</v>
       </c>
       <c r="M30" s="7">
         <v>240</v>
@@ -6795,13 +6777,13 @@
         <v>271025</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>162</v>
+        <v>497</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>507</v>
+        <v>462</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>221</v>
+        <v>381</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6816,13 +6798,13 @@
         <v>74756</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="H31" s="7">
         <v>70</v>
@@ -6831,13 +6813,13 @@
         <v>78797</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>396</v>
+        <v>502</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="M31" s="7">
         <v>135</v>
@@ -6846,13 +6828,13 @@
         <v>153553</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6867,13 +6849,13 @@
         <v>84307</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>443</v>
+        <v>508</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="H32" s="7">
         <v>95</v>
@@ -6882,13 +6864,13 @@
         <v>107759</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="M32" s="7">
         <v>171</v>
@@ -6897,13 +6879,13 @@
         <v>192066</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>523</v>
+        <v>321</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6971,13 +6953,13 @@
         <v>20546</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="H34" s="7">
         <v>14</v>
@@ -6986,13 +6968,13 @@
         <v>16683</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="M34" s="7">
         <v>35</v>
@@ -7001,13 +6983,13 @@
         <v>37228</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7022,13 +7004,13 @@
         <v>91673</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>402</v>
+        <v>525</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="H35" s="7">
         <v>99</v>
@@ -7037,13 +7019,13 @@
         <v>117998</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="M35" s="7">
         <v>197</v>
@@ -7052,13 +7034,13 @@
         <v>209671</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>373</v>
+        <v>531</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7073,13 +7055,13 @@
         <v>178593</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="H36" s="7">
         <v>213</v>
@@ -7088,13 +7070,13 @@
         <v>249909</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="M36" s="7">
         <v>406</v>
@@ -7103,13 +7085,13 @@
         <v>428502</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7124,13 +7106,13 @@
         <v>120258</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="H37" s="7">
         <v>124</v>
@@ -7139,13 +7121,13 @@
         <v>147867</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="M37" s="7">
         <v>251</v>
@@ -7154,13 +7136,13 @@
         <v>268125</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>556</v>
+        <v>189</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7175,13 +7157,13 @@
         <v>155454</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>507</v>
+        <v>550</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="H38" s="7">
         <v>180</v>
@@ -7190,13 +7172,13 @@
         <v>217011</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="M38" s="7">
         <v>341</v>
@@ -7208,10 +7190,10 @@
         <v>80</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>564</v>
+        <v>449</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7279,13 +7261,13 @@
         <v>308025</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>139</v>
+        <v>558</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="H40" s="7">
         <v>227</v>
@@ -7294,13 +7276,13 @@
         <v>234204</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>569</v>
+        <v>157</v>
       </c>
       <c r="M40" s="7">
         <v>517</v>
@@ -7309,13 +7291,13 @@
         <v>542230</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>140</v>
+        <v>562</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7330,13 +7312,13 @@
         <v>724240</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>571</v>
+        <v>487</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>78</v>
+        <v>564</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="H41" s="7">
         <v>755</v>
@@ -7345,13 +7327,13 @@
         <v>793831</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>575</v>
+        <v>413</v>
       </c>
       <c r="M41" s="7">
         <v>1446</v>
@@ -7360,13 +7342,13 @@
         <v>1518072</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>576</v>
+        <v>222</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7381,13 +7363,13 @@
         <v>795445</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>464</v>
+        <v>572</v>
       </c>
       <c r="H42" s="7">
         <v>869</v>
@@ -7396,13 +7378,13 @@
         <v>932264</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>458</v>
+        <v>573</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>86</v>
+        <v>344</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="M42" s="7">
         <v>1636</v>
@@ -7414,10 +7396,10 @@
         <v>129</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>583</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7432,13 +7414,13 @@
         <v>360317</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>91</v>
+        <v>577</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="H43" s="7">
         <v>407</v>
@@ -7447,13 +7429,13 @@
         <v>442588</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>586</v>
+        <v>331</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>99</v>
+        <v>579</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>587</v>
+        <v>94</v>
       </c>
       <c r="M43" s="7">
         <v>751</v>
@@ -7462,13 +7444,13 @@
         <v>802905</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7483,13 +7465,13 @@
         <v>463958</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>227</v>
+        <v>584</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="H44" s="7">
         <v>556</v>
@@ -7498,13 +7480,13 @@
         <v>609057</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="M44" s="7">
         <v>1000</v>
@@ -7513,13 +7495,13 @@
         <v>1073015</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7561,7 +7543,7 @@
         <v>5350</v>
       </c>
       <c r="N45" s="7">
-        <v>5663931</v>
+        <v>5663930</v>
       </c>
       <c r="O45" s="7" t="s">
         <v>60</v>
@@ -7575,7 +7557,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -7597,7 +7579,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5845EF81-21E2-4760-A404-90948441AD37}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{818B552A-43AA-4E67-BA77-FAE3F325B5CB}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7614,7 +7596,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7721,13 +7703,13 @@
         <v>27732</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="H4" s="7">
         <v>21</v>
@@ -7736,13 +7718,13 @@
         <v>30706</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>605</v>
+        <v>348</v>
       </c>
       <c r="M4" s="7">
         <v>37</v>
@@ -7751,13 +7733,13 @@
         <v>58438</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7772,13 +7754,13 @@
         <v>56883</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>120</v>
+        <v>602</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="H5" s="7">
         <v>28</v>
@@ -7787,13 +7769,13 @@
         <v>42656</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>62</v>
+        <v>316</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="M5" s="7">
         <v>57</v>
@@ -7802,13 +7784,13 @@
         <v>99539</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>265</v>
+        <v>607</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7823,13 +7805,13 @@
         <v>48458</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="H6" s="7">
         <v>31</v>
@@ -7838,13 +7820,13 @@
         <v>54350</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>460</v>
+        <v>612</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="M6" s="7">
         <v>50</v>
@@ -7853,13 +7835,13 @@
         <v>102807</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7874,13 +7856,13 @@
         <v>20123</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>623</v>
+        <v>577</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="H7" s="7">
         <v>14</v>
@@ -7889,13 +7871,13 @@
         <v>23374</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="M7" s="7">
         <v>21</v>
@@ -7904,13 +7886,13 @@
         <v>43496</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>48</v>
+        <v>624</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7925,13 +7907,13 @@
         <v>9012</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>633</v>
+        <v>402</v>
       </c>
       <c r="H8" s="7">
         <v>28</v>
@@ -7940,13 +7922,13 @@
         <v>49330</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>636</v>
+        <v>458</v>
       </c>
       <c r="M8" s="7">
         <v>34</v>
@@ -7955,13 +7937,13 @@
         <v>58342</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8029,13 +8011,13 @@
         <v>30908</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>374</v>
+        <v>633</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>286</v>
+        <v>634</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>600</v>
+        <v>635</v>
       </c>
       <c r="H10" s="7">
         <v>38</v>
@@ -8044,13 +8026,13 @@
         <v>40318</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="M10" s="7">
         <v>64</v>
@@ -8059,13 +8041,13 @@
         <v>71226</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8080,13 +8062,13 @@
         <v>105856</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>647</v>
+        <v>455</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>648</v>
+        <v>334</v>
       </c>
       <c r="H11" s="7">
         <v>111</v>
@@ -8095,13 +8077,13 @@
         <v>118041</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="M11" s="7">
         <v>187</v>
@@ -8110,13 +8092,13 @@
         <v>223897</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>542</v>
+        <v>646</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8131,13 +8113,13 @@
         <v>80539</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>655</v>
+        <v>228</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="H12" s="7">
         <v>99</v>
@@ -8146,13 +8128,13 @@
         <v>97319</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="M12" s="7">
         <v>155</v>
@@ -8161,13 +8143,13 @@
         <v>177857</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>290</v>
+        <v>345</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8182,13 +8164,13 @@
         <v>27904</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>570</v>
+        <v>656</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="H13" s="7">
         <v>42</v>
@@ -8197,13 +8179,13 @@
         <v>45954</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="M13" s="7">
         <v>62</v>
@@ -8212,13 +8194,13 @@
         <v>73857</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>667</v>
+        <v>411</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>364</v>
+        <v>663</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8233,13 +8215,13 @@
         <v>24954</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>631</v>
+        <v>664</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>669</v>
+        <v>316</v>
       </c>
       <c r="H14" s="7">
         <v>62</v>
@@ -8248,13 +8230,13 @@
         <v>63411</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>672</v>
+        <v>166</v>
       </c>
       <c r="M14" s="7">
         <v>79</v>
@@ -8263,13 +8245,13 @@
         <v>88365</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8337,13 +8319,13 @@
         <v>45552</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>407</v>
+        <v>670</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="H16" s="7">
         <v>63</v>
@@ -8352,13 +8334,13 @@
         <v>46915</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>679</v>
+        <v>287</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="M16" s="7">
         <v>107</v>
@@ -8367,13 +8349,13 @@
         <v>92468</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>682</v>
+        <v>115</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>683</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8388,13 +8370,13 @@
         <v>127423</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="H17" s="7">
         <v>210</v>
@@ -8403,13 +8385,13 @@
         <v>150323</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="M17" s="7">
         <v>336</v>
@@ -8418,13 +8400,13 @@
         <v>277746</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>541</v>
+        <v>385</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8439,13 +8421,13 @@
         <v>132373</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="H18" s="7">
         <v>210</v>
@@ -8454,13 +8436,13 @@
         <v>139975</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
       <c r="M18" s="7">
         <v>338</v>
@@ -8469,13 +8451,13 @@
         <v>272349</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>72</v>
+        <v>691</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8490,13 +8472,13 @@
         <v>59637</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>700</v>
+        <v>476</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>640</v>
+        <v>693</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>701</v>
+        <v>189</v>
       </c>
       <c r="H19" s="7">
         <v>93</v>
@@ -8505,13 +8487,13 @@
         <v>59208</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>514</v>
+        <v>696</v>
       </c>
       <c r="M19" s="7">
         <v>151</v>
@@ -8520,13 +8502,13 @@
         <v>118845</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8541,13 +8523,13 @@
         <v>58215</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>179</v>
+        <v>700</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>591</v>
+        <v>702</v>
       </c>
       <c r="H20" s="7">
         <v>142</v>
@@ -8556,13 +8538,13 @@
         <v>91844</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="M20" s="7">
         <v>199</v>
@@ -8571,13 +8553,13 @@
         <v>150059</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8633,7 +8615,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -8645,13 +8627,13 @@
         <v>41330</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>716</v>
+        <v>353</v>
       </c>
       <c r="H22" s="7">
         <v>69</v>
@@ -8660,13 +8642,13 @@
         <v>47361</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>717</v>
+        <v>621</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>569</v>
+        <v>712</v>
       </c>
       <c r="M22" s="7">
         <v>112</v>
@@ -8675,13 +8657,13 @@
         <v>88691</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8696,13 +8678,13 @@
         <v>154392</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="H23" s="7">
         <v>272</v>
@@ -8711,13 +8693,13 @@
         <v>180464</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>725</v>
+        <v>84</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>319</v>
+        <v>719</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>76</v>
+        <v>720</v>
       </c>
       <c r="M23" s="7">
         <v>428</v>
@@ -8726,13 +8708,13 @@
         <v>334856</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>551</v>
+        <v>721</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8747,13 +8729,13 @@
         <v>188995</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>581</v>
+        <v>723</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="H24" s="7">
         <v>319</v>
@@ -8762,13 +8744,13 @@
         <v>210861</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="M24" s="7">
         <v>507</v>
@@ -8777,13 +8759,13 @@
         <v>399855</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8798,13 +8780,13 @@
         <v>76306</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>589</v>
+        <v>732</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="H25" s="7">
         <v>158</v>
@@ -8813,13 +8795,13 @@
         <v>95387</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>735</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>736</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>737</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>738</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>739</v>
       </c>
       <c r="M25" s="7">
         <v>233</v>
@@ -8828,13 +8810,13 @@
         <v>171692</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>741</v>
+        <v>63</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8849,13 +8831,13 @@
         <v>115538</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>745</v>
+        <v>32</v>
       </c>
       <c r="H26" s="7">
         <v>221</v>
@@ -8864,13 +8846,13 @@
         <v>145577</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>164</v>
+        <v>743</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="M26" s="7">
         <v>337</v>
@@ -8879,13 +8861,13 @@
         <v>261115</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>749</v>
+        <v>610</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8941,7 +8923,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -8953,13 +8935,13 @@
         <v>45063</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="H28" s="7">
         <v>52</v>
@@ -8968,13 +8950,13 @@
         <v>31838</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="M28" s="7">
         <v>98</v>
@@ -8983,13 +8965,13 @@
         <v>76901</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9004,13 +8986,13 @@
         <v>131380</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>745</v>
+        <v>602</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="H29" s="7">
         <v>186</v>
@@ -9019,13 +9001,13 @@
         <v>112058</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>212</v>
+        <v>758</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>511</v>
+        <v>468</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="M29" s="7">
         <v>321</v>
@@ -9034,13 +9016,13 @@
         <v>243438</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9055,13 +9037,13 @@
         <v>152087</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>767</v>
+        <v>169</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="H30" s="7">
         <v>301</v>
@@ -9070,13 +9052,13 @@
         <v>179732</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="M30" s="7">
         <v>480</v>
@@ -9088,10 +9070,10 @@
         <v>263</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9106,13 +9088,13 @@
         <v>112327</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>774</v>
+        <v>607</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>345</v>
+        <v>762</v>
       </c>
       <c r="H31" s="7">
         <v>185</v>
@@ -9121,13 +9103,13 @@
         <v>106681</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>776</v>
+        <v>438</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="M31" s="7">
         <v>312</v>
@@ -9136,13 +9118,13 @@
         <v>219007</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9157,13 +9139,13 @@
         <v>109714</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>781</v>
+        <v>629</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>782</v>
+        <v>717</v>
       </c>
       <c r="H32" s="7">
         <v>230</v>
@@ -9172,13 +9154,13 @@
         <v>133430</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>783</v>
+        <v>197</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>784</v>
+        <v>775</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>466</v>
+        <v>776</v>
       </c>
       <c r="M32" s="7">
         <v>352</v>
@@ -9187,13 +9169,13 @@
         <v>243143</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9261,13 +9243,13 @@
         <v>25610</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>790</v>
+        <v>204</v>
       </c>
       <c r="H34" s="7">
         <v>52</v>
@@ -9276,13 +9258,13 @@
         <v>30054</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>203</v>
+        <v>782</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
       <c r="M34" s="7">
         <v>87</v>
@@ -9291,13 +9273,13 @@
         <v>55664</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>795</v>
+        <v>787</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9312,13 +9294,13 @@
         <v>118483</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>796</v>
+        <v>788</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>798</v>
+        <v>100</v>
       </c>
       <c r="H35" s="7">
         <v>274</v>
@@ -9327,13 +9309,13 @@
         <v>148075</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>58</v>
+        <v>790</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>799</v>
+        <v>791</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>800</v>
+        <v>792</v>
       </c>
       <c r="M35" s="7">
         <v>437</v>
@@ -9342,13 +9324,13 @@
         <v>266558</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>664</v>
+        <v>794</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9366,10 +9348,10 @@
         <v>31</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>803</v>
+        <v>776</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>432</v>
+        <v>339</v>
       </c>
       <c r="H36" s="7">
         <v>494</v>
@@ -9378,13 +9360,13 @@
         <v>382526</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>804</v>
+        <v>796</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>805</v>
+        <v>336</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>806</v>
+        <v>797</v>
       </c>
       <c r="M36" s="7">
         <v>788</v>
@@ -9393,13 +9375,13 @@
         <v>584061</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>133</v>
+        <v>798</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>219</v>
+        <v>799</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>807</v>
+        <v>800</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9414,13 +9396,13 @@
         <v>162552</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>167</v>
+        <v>802</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>576</v>
+        <v>803</v>
       </c>
       <c r="H37" s="7">
         <v>374</v>
@@ -9429,13 +9411,13 @@
         <v>195277</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>764</v>
+        <v>804</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>536</v>
+        <v>97</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="M37" s="7">
         <v>621</v>
@@ -9444,13 +9426,13 @@
         <v>357829</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>810</v>
+        <v>546</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9465,13 +9447,13 @@
         <v>164790</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>812</v>
+        <v>81</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>510</v>
+        <v>807</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="H38" s="7">
         <v>444</v>
@@ -9480,13 +9462,13 @@
         <v>229010</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>168</v>
+        <v>811</v>
       </c>
       <c r="M38" s="7">
         <v>699</v>
@@ -9495,13 +9477,13 @@
         <v>393800</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>817</v>
+        <v>486</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -9569,13 +9551,13 @@
         <v>216195</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="H40" s="7">
         <v>295</v>
@@ -9584,13 +9566,13 @@
         <v>227192</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>641</v>
+        <v>819</v>
       </c>
       <c r="M40" s="7">
         <v>505</v>
@@ -9599,13 +9581,13 @@
         <v>443387</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>45</v>
+        <v>255</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -9620,13 +9602,13 @@
         <v>694418</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>827</v>
+        <v>721</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>828</v>
+        <v>727</v>
       </c>
       <c r="H41" s="7">
         <v>1081</v>
@@ -9635,13 +9617,13 @@
         <v>751616</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="M41" s="7">
         <v>1766</v>
@@ -9650,13 +9632,13 @@
         <v>1446034</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -9671,13 +9653,13 @@
         <v>803986</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>304</v>
+        <v>88</v>
       </c>
       <c r="H42" s="7">
         <v>1454</v>
@@ -9686,13 +9668,13 @@
         <v>1064763</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>838</v>
+        <v>424</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="M42" s="7">
         <v>2318</v>
@@ -9701,13 +9683,13 @@
         <v>1868749</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>842</v>
+        <v>835</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -9722,13 +9704,13 @@
         <v>458847</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>843</v>
+        <v>770</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>844</v>
+        <v>734</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>845</v>
+        <v>486</v>
       </c>
       <c r="H43" s="7">
         <v>866</v>
@@ -9737,13 +9719,13 @@
         <v>525880</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>846</v>
+        <v>836</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>847</v>
+        <v>837</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>508</v>
+        <v>838</v>
       </c>
       <c r="M43" s="7">
         <v>1400</v>
@@ -9752,13 +9734,13 @@
         <v>984728</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>742</v>
+        <v>840</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>849</v>
+        <v>841</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -9773,13 +9755,13 @@
         <v>482223</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>666</v>
+        <v>843</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>446</v>
+        <v>844</v>
       </c>
       <c r="H44" s="7">
         <v>1127</v>
@@ -9788,13 +9770,13 @@
         <v>712602</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>851</v>
+        <v>106</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>852</v>
+        <v>845</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>853</v>
+        <v>846</v>
       </c>
       <c r="M44" s="7">
         <v>1700</v>
@@ -9803,13 +9785,13 @@
         <v>1194825</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>854</v>
+        <v>847</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>537</v>
+        <v>848</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -9836,7 +9818,7 @@
         <v>4823</v>
       </c>
       <c r="I45" s="7">
-        <v>3282053</v>
+        <v>3282052</v>
       </c>
       <c r="J45" s="7" t="s">
         <v>60</v>
@@ -9865,7 +9847,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>
